--- a/data/pca/factorExposure/factorExposure_2009-10-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009380126748437358</v>
+        <v>0.01675706125916645</v>
       </c>
       <c r="C2">
-        <v>0.001398298988939798</v>
+        <v>0.0009137160250829451</v>
       </c>
       <c r="D2">
-        <v>0.008900220309691604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.00881039297030008</v>
+      </c>
+      <c r="E2">
+        <v>-0.001805661233130104</v>
+      </c>
+      <c r="F2">
+        <v>-0.01267724330633304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.109486740396246</v>
+        <v>0.09359786316111413</v>
       </c>
       <c r="C4">
-        <v>0.00349344574895178</v>
+        <v>0.01463658973596031</v>
       </c>
       <c r="D4">
-        <v>0.05041776105094466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08480443791223437</v>
+      </c>
+      <c r="E4">
+        <v>-0.03006399679205</v>
+      </c>
+      <c r="F4">
+        <v>0.03155877358401454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1398220567440808</v>
+        <v>0.1588924900755969</v>
       </c>
       <c r="C6">
-        <v>0.007737141483838955</v>
+        <v>0.02622637284705256</v>
       </c>
       <c r="D6">
-        <v>-0.03053839314390927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02246722647524413</v>
+      </c>
+      <c r="E6">
+        <v>-0.01042827608274952</v>
+      </c>
+      <c r="F6">
+        <v>0.04597710181981345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07467765154901246</v>
+        <v>0.06324802965539687</v>
       </c>
       <c r="C7">
-        <v>-0.009193826604186335</v>
+        <v>-0.001814868463113102</v>
       </c>
       <c r="D7">
-        <v>0.03197327523422802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05299264298917536</v>
+      </c>
+      <c r="E7">
+        <v>-0.01118634183305403</v>
+      </c>
+      <c r="F7">
+        <v>0.04629982510799449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06756651839897722</v>
+        <v>0.05722935827028815</v>
       </c>
       <c r="C8">
-        <v>-0.019153902273349</v>
+        <v>-0.01349953108766967</v>
       </c>
       <c r="D8">
-        <v>-0.002548634623388462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03315259649711527</v>
+      </c>
+      <c r="E8">
+        <v>-0.01799404400382995</v>
+      </c>
+      <c r="F8">
+        <v>-0.02747664785607378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09076729370454056</v>
+        <v>0.07079348246572867</v>
       </c>
       <c r="C9">
-        <v>0.003433393298220353</v>
+        <v>0.01027595980589689</v>
       </c>
       <c r="D9">
-        <v>0.0467271513506873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08683854293256345</v>
+      </c>
+      <c r="E9">
+        <v>-0.02340560048802043</v>
+      </c>
+      <c r="F9">
+        <v>0.04747710017111027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0547432313468697</v>
+        <v>0.09287852028696718</v>
       </c>
       <c r="C10">
-        <v>0.002871033242115994</v>
+        <v>0.02104198690597765</v>
       </c>
       <c r="D10">
-        <v>-0.1372508978189816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1672328485921546</v>
+      </c>
+      <c r="E10">
+        <v>0.03438595629883209</v>
+      </c>
+      <c r="F10">
+        <v>-0.05471280766026141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09932469860796049</v>
+        <v>0.08787795717990718</v>
       </c>
       <c r="C11">
-        <v>0.00298467041726401</v>
+        <v>0.01037683164045676</v>
       </c>
       <c r="D11">
-        <v>0.07880040669516056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1167261394848881</v>
+      </c>
+      <c r="E11">
+        <v>-0.04608779622765417</v>
+      </c>
+      <c r="F11">
+        <v>0.02198977828803135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1071456749745094</v>
+        <v>0.09191047217940788</v>
       </c>
       <c r="C12">
-        <v>0.0006005971988167306</v>
+        <v>0.007726991668451015</v>
       </c>
       <c r="D12">
-        <v>0.07839627618942459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1320831186662947</v>
+      </c>
+      <c r="E12">
+        <v>-0.04718963113731103</v>
+      </c>
+      <c r="F12">
+        <v>0.02786108952961729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04444545897139616</v>
+        <v>0.04179560235372135</v>
       </c>
       <c r="C13">
-        <v>-0.0001084898023138088</v>
+        <v>0.002660975179041002</v>
       </c>
       <c r="D13">
-        <v>0.03176268523208048</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05348740409609275</v>
+      </c>
+      <c r="E13">
+        <v>0.004960211761174687</v>
+      </c>
+      <c r="F13">
+        <v>0.0001486231897934171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02042653834164275</v>
+        <v>0.02397663255688524</v>
       </c>
       <c r="C14">
-        <v>0.011569561349424</v>
+        <v>0.01386756871977505</v>
       </c>
       <c r="D14">
-        <v>0.02561566592192158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03270582505570013</v>
+      </c>
+      <c r="E14">
+        <v>-0.01924412579360158</v>
+      </c>
+      <c r="F14">
+        <v>0.01207463374692577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.04344375633960378</v>
+        <v>0.03283945356669065</v>
       </c>
       <c r="C15">
-        <v>0.001521022936908365</v>
+        <v>0.004698045577622447</v>
       </c>
       <c r="D15">
-        <v>0.01305440429362432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04493341599173581</v>
+      </c>
+      <c r="E15">
+        <v>-0.005860792196507396</v>
+      </c>
+      <c r="F15">
+        <v>0.02430254742082209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08826327731989014</v>
+        <v>0.07434392590816706</v>
       </c>
       <c r="C16">
-        <v>-0.004607785965118895</v>
+        <v>0.001040387521008406</v>
       </c>
       <c r="D16">
-        <v>0.07264075397258563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1275294279787236</v>
+      </c>
+      <c r="E16">
+        <v>-0.06126180629613054</v>
+      </c>
+      <c r="F16">
+        <v>0.02640077903043105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000466759565023809</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-8.384951700054393e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0006099882782018055</v>
+      </c>
+      <c r="E17">
+        <v>-0.0002615702722931558</v>
+      </c>
+      <c r="F17">
+        <v>-0.0004960042536815137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03493422081631246</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003086848180078417</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01627568277841158</v>
+      </c>
+      <c r="E18">
+        <v>0.006252020671809337</v>
+      </c>
+      <c r="F18">
+        <v>-0.008713495043434695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06576074267883768</v>
+        <v>0.06148413512831871</v>
       </c>
       <c r="C20">
-        <v>-0.002151918673415998</v>
+        <v>-0.0001177142534220436</v>
       </c>
       <c r="D20">
-        <v>0.02260772602757708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07761134426692153</v>
+      </c>
+      <c r="E20">
+        <v>-0.05591302829210034</v>
+      </c>
+      <c r="F20">
+        <v>0.02400392374915405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04035539968322637</v>
+        <v>0.04065285840104188</v>
       </c>
       <c r="C21">
-        <v>0.004958204282670046</v>
+        <v>0.006453654459133026</v>
       </c>
       <c r="D21">
-        <v>0.01058203978078531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03745239395776603</v>
+      </c>
+      <c r="E21">
+        <v>0.002871591816801505</v>
+      </c>
+      <c r="F21">
+        <v>-0.02599541093826049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02183854657120822</v>
+        <v>0.0424883898936211</v>
       </c>
       <c r="C22">
-        <v>-0.0005515771692105688</v>
+        <v>0.0004506072439841498</v>
       </c>
       <c r="D22">
-        <v>-0.02143916929157793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006976402906019542</v>
+      </c>
+      <c r="E22">
+        <v>-0.03526745588276017</v>
+      </c>
+      <c r="F22">
+        <v>-0.04136404646823269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02177878968958821</v>
+        <v>0.04246428664917421</v>
       </c>
       <c r="C23">
-        <v>-0.0005512913264943204</v>
+        <v>0.0004422640328915844</v>
       </c>
       <c r="D23">
-        <v>-0.02143378083920115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006992341048218075</v>
+      </c>
+      <c r="E23">
+        <v>-0.0354515461835105</v>
+      </c>
+      <c r="F23">
+        <v>-0.04132604106932462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.09507861806149467</v>
+        <v>0.07997289265721885</v>
       </c>
       <c r="C24">
-        <v>-0.005351124044716177</v>
+        <v>0.001654358253241495</v>
       </c>
       <c r="D24">
-        <v>0.08450628665769691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1216631580312719</v>
+      </c>
+      <c r="E24">
+        <v>-0.04927319077253776</v>
+      </c>
+      <c r="F24">
+        <v>0.02693237669297116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09859117806199755</v>
+        <v>0.0853115598582288</v>
       </c>
       <c r="C25">
-        <v>-0.002590383405778</v>
+        <v>0.004382542640713668</v>
       </c>
       <c r="D25">
-        <v>0.08111575021837099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1092408431658732</v>
+      </c>
+      <c r="E25">
+        <v>-0.03277509967677795</v>
+      </c>
+      <c r="F25">
+        <v>0.02650283821489225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05611212232636696</v>
+        <v>0.05834281305975471</v>
       </c>
       <c r="C26">
-        <v>0.01065235416548302</v>
+        <v>0.0141392240578735</v>
       </c>
       <c r="D26">
-        <v>0.002600241031487634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04119854832639826</v>
+      </c>
+      <c r="E26">
+        <v>-0.0281054780017967</v>
+      </c>
+      <c r="F26">
+        <v>-0.00592209384460173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1050200345267325</v>
+        <v>0.14187423096576</v>
       </c>
       <c r="C28">
-        <v>-0.007241991087580051</v>
+        <v>0.02175096456849024</v>
       </c>
       <c r="D28">
-        <v>-0.2587729567121957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2616526190426582</v>
+      </c>
+      <c r="E28">
+        <v>0.06733303925131601</v>
+      </c>
+      <c r="F28">
+        <v>0.008712977390959891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02458176665496184</v>
+        <v>0.02846889940970952</v>
       </c>
       <c r="C29">
-        <v>0.006571767863598506</v>
+        <v>0.0087495571575253</v>
       </c>
       <c r="D29">
-        <v>0.01587699376051203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03084204233504316</v>
+      </c>
+      <c r="E29">
+        <v>-0.01369937790430453</v>
+      </c>
+      <c r="F29">
+        <v>-0.01386276015481961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09664300764240005</v>
+        <v>0.05982306794935403</v>
       </c>
       <c r="C30">
-        <v>-0.007137394395517098</v>
+        <v>0.002761389572168387</v>
       </c>
       <c r="D30">
-        <v>0.05628153573692382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08966272746263203</v>
+      </c>
+      <c r="E30">
+        <v>-0.01609850900995639</v>
+      </c>
+      <c r="F30">
+        <v>0.07951764264705243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03591330547665379</v>
+        <v>0.0506842142450527</v>
       </c>
       <c r="C31">
-        <v>0.01228047462936418</v>
+        <v>0.01533197474053775</v>
       </c>
       <c r="D31">
-        <v>0.01497363181469338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02460736191073593</v>
+      </c>
+      <c r="E31">
+        <v>-0.02760247932290648</v>
+      </c>
+      <c r="F31">
+        <v>-0.002352781562352285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04750727660131141</v>
+        <v>0.05139856779472368</v>
       </c>
       <c r="C32">
-        <v>-0.005550991221889573</v>
+        <v>-0.001768343042433496</v>
       </c>
       <c r="D32">
-        <v>0.0151118910043274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03500152457419839</v>
+      </c>
+      <c r="E32">
+        <v>-0.03314929648940079</v>
+      </c>
+      <c r="F32">
+        <v>0.003324885299730546</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1021744968500986</v>
+        <v>0.08934313897951464</v>
       </c>
       <c r="C33">
-        <v>-0.001104056233736784</v>
+        <v>0.007051851946679472</v>
       </c>
       <c r="D33">
-        <v>0.05506193491755779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1001922808658297</v>
+      </c>
+      <c r="E33">
+        <v>-0.04388090268770422</v>
+      </c>
+      <c r="F33">
+        <v>0.03583975731359971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08622217650328137</v>
+        <v>0.0676874834813334</v>
       </c>
       <c r="C34">
-        <v>0.002881141929553272</v>
+        <v>0.01001349602579526</v>
       </c>
       <c r="D34">
-        <v>0.0762937738835343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1090174855407866</v>
+      </c>
+      <c r="E34">
+        <v>-0.03453764896337615</v>
+      </c>
+      <c r="F34">
+        <v>0.03307762688967756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02194479208333667</v>
+        <v>0.02457434586104142</v>
       </c>
       <c r="C35">
-        <v>-0.0008026046112931794</v>
+        <v>0.002479924277742606</v>
       </c>
       <c r="D35">
-        <v>0.004425048619635736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01129830907559891</v>
+      </c>
+      <c r="E35">
+        <v>-0.01212161138828606</v>
+      </c>
+      <c r="F35">
+        <v>0.0004751196161729498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01562805999917686</v>
+        <v>0.02762788409139678</v>
       </c>
       <c r="C36">
-        <v>0.008021935614628056</v>
+        <v>0.006826685700205021</v>
       </c>
       <c r="D36">
-        <v>0.02594811612264698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03965984751975899</v>
+      </c>
+      <c r="E36">
+        <v>-0.01646842961932421</v>
+      </c>
+      <c r="F36">
+        <v>0.01551358115765519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.00132870272015648</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006626511813990555</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002401467300694331</v>
+      </c>
+      <c r="E37">
+        <v>0.0006055226995260554</v>
+      </c>
+      <c r="F37">
+        <v>0.0004664344438216281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0001874398160075241</v>
+        <v>3.414092940091797e-05</v>
       </c>
       <c r="C38">
-        <v>3.637235355087373e-05</v>
+        <v>-6.134594198577092e-05</v>
       </c>
       <c r="D38">
-        <v>0.001195359748951677</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0004712319262171493</v>
+      </c>
+      <c r="E38">
+        <v>0.0004327516387913701</v>
+      </c>
+      <c r="F38">
+        <v>9.061555130716394e-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1328112976604183</v>
+        <v>0.104826687775938</v>
       </c>
       <c r="C39">
-        <v>0.004181772968542252</v>
+        <v>0.01556223794012298</v>
       </c>
       <c r="D39">
-        <v>0.1180885263068914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1545964971438953</v>
+      </c>
+      <c r="E39">
+        <v>-0.05895958968990737</v>
+      </c>
+      <c r="F39">
+        <v>0.02966906086786267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02752895889076041</v>
+        <v>0.04178982152383344</v>
       </c>
       <c r="C40">
-        <v>0.006234239891412746</v>
+        <v>0.006724842518169135</v>
       </c>
       <c r="D40">
-        <v>-0.0149926265326031</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03186803030757199</v>
+      </c>
+      <c r="E40">
+        <v>-0.003257345330480661</v>
+      </c>
+      <c r="F40">
+        <v>-0.01582099605085947</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02003545058336484</v>
+        <v>0.02785960896716939</v>
       </c>
       <c r="C41">
-        <v>0.004997673326933376</v>
+        <v>0.006911313189649551</v>
       </c>
       <c r="D41">
-        <v>-0.001367098686530081</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01035269824045189</v>
+      </c>
+      <c r="E41">
+        <v>-0.01170707513714201</v>
+      </c>
+      <c r="F41">
+        <v>-0.007020249299797793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01773099481370452</v>
+        <v>0.0405736892741802</v>
       </c>
       <c r="C43">
-        <v>0.007290818709449605</v>
+        <v>0.007083878929339122</v>
       </c>
       <c r="D43">
-        <v>0.01041488605783687</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01906239243728036</v>
+      </c>
+      <c r="E43">
+        <v>-0.02482366900359958</v>
+      </c>
+      <c r="F43">
+        <v>-0.01420243072722834</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1049809590756403</v>
+        <v>0.07947044838885502</v>
       </c>
       <c r="C44">
-        <v>0.01044498870846</v>
+        <v>0.01929641984332518</v>
       </c>
       <c r="D44">
-        <v>0.05415407597813206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09787588118301969</v>
+      </c>
+      <c r="E44">
+        <v>-0.06204670899630248</v>
+      </c>
+      <c r="F44">
+        <v>0.1561155893626393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.004682150623146056</v>
+        <v>0.02315831329948083</v>
       </c>
       <c r="C46">
-        <v>0.004296969658924133</v>
+        <v>0.003349736705070694</v>
       </c>
       <c r="D46">
-        <v>-0.001568381711961436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01306336724428585</v>
+      </c>
+      <c r="E46">
+        <v>-0.02575043161903488</v>
+      </c>
+      <c r="F46">
+        <v>-0.008061615856870203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04297730676644249</v>
+        <v>0.05212278806576484</v>
       </c>
       <c r="C47">
-        <v>-6.854444799919639e-05</v>
+        <v>0.003377068453030091</v>
       </c>
       <c r="D47">
-        <v>-0.02213949895440022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0141538388662348</v>
+      </c>
+      <c r="E47">
+        <v>-0.02284089590816287</v>
+      </c>
+      <c r="F47">
+        <v>-0.03253416122827846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0541376616418313</v>
+        <v>0.05028411206182523</v>
       </c>
       <c r="C48">
-        <v>-0.00213570285372972</v>
+        <v>0.002248436904857509</v>
       </c>
       <c r="D48">
-        <v>0.02560743629260814</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04992911615341258</v>
+      </c>
+      <c r="E48">
+        <v>0.005361349213595726</v>
+      </c>
+      <c r="F48">
+        <v>0.009022375707117433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2230967347492867</v>
+        <v>0.2000778373820551</v>
       </c>
       <c r="C49">
-        <v>-0.01275041000820435</v>
+        <v>0.01887422580465121</v>
       </c>
       <c r="D49">
-        <v>-0.03066454841772053</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006449282729712876</v>
+      </c>
+      <c r="E49">
+        <v>-0.03131943425869606</v>
+      </c>
+      <c r="F49">
+        <v>0.03643884307397775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04121851944020747</v>
+        <v>0.05104640979677266</v>
       </c>
       <c r="C50">
-        <v>0.007597298291602492</v>
+        <v>0.01103903088111716</v>
       </c>
       <c r="D50">
-        <v>0.008394525040132795</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02399996157422512</v>
+      </c>
+      <c r="E50">
+        <v>-0.02937387807314152</v>
+      </c>
+      <c r="F50">
+        <v>0.008897067678540579</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0002419393318601955</v>
+        <v>-0.0001610057085799292</v>
       </c>
       <c r="C51">
-        <v>-1.065142926190065e-07</v>
+        <v>-3.305783250475465e-05</v>
       </c>
       <c r="D51">
-        <v>0.0002897959195008997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>8.774639780651028e-05</v>
+      </c>
+      <c r="E51">
+        <v>8.561275962675772e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.0009511071306934767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1578096473715873</v>
+        <v>0.1471921074738747</v>
       </c>
       <c r="C52">
-        <v>-0.005906628426284838</v>
+        <v>0.01678712061014808</v>
       </c>
       <c r="D52">
-        <v>0.0389591227395535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04261705217951276</v>
+      </c>
+      <c r="E52">
+        <v>-0.01908822754603004</v>
+      </c>
+      <c r="F52">
+        <v>0.04348503353307151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1736923256274008</v>
+        <v>0.1713532517620909</v>
       </c>
       <c r="C53">
-        <v>-0.007447500752509322</v>
+        <v>0.019577719092935</v>
       </c>
       <c r="D53">
-        <v>0.0004658817424636003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005238906208923192</v>
+      </c>
+      <c r="E53">
+        <v>-0.0280874394335749</v>
+      </c>
+      <c r="F53">
+        <v>0.07370621803898061</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02423423227755252</v>
+        <v>0.02128395059277729</v>
       </c>
       <c r="C54">
-        <v>0.0087490383173366</v>
+        <v>0.01154534687068316</v>
       </c>
       <c r="D54">
-        <v>0.01714792029080576</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03439270477172</v>
+      </c>
+      <c r="E54">
+        <v>-0.02132650658965058</v>
+      </c>
+      <c r="F54">
+        <v>-0.005919701754792789</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1058061214912037</v>
+        <v>0.1140581498099416</v>
       </c>
       <c r="C55">
-        <v>0.0003016309808165813</v>
+        <v>0.01702869150703112</v>
       </c>
       <c r="D55">
-        <v>-0.002936844037454074</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008445046457444786</v>
+      </c>
+      <c r="E55">
+        <v>-0.02419170332698668</v>
+      </c>
+      <c r="F55">
+        <v>0.04775023131543814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1755079835949401</v>
+        <v>0.1765378544341149</v>
       </c>
       <c r="C56">
-        <v>-0.01007292848280085</v>
+        <v>0.01734833531417345</v>
       </c>
       <c r="D56">
-        <v>-0.01795021374376685</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001273435500056592</v>
+      </c>
+      <c r="E56">
+        <v>-0.03355551328161766</v>
+      </c>
+      <c r="F56">
+        <v>0.05182739226217237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0340353935611836</v>
+        <v>0.0449060130089928</v>
       </c>
       <c r="C58">
-        <v>0.002841052229116266</v>
+        <v>-0.0005105590885208179</v>
       </c>
       <c r="D58">
-        <v>0.04487870686481515</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07103576853078833</v>
+      </c>
+      <c r="E58">
+        <v>-0.03004878551963755</v>
+      </c>
+      <c r="F58">
+        <v>-0.03861681577694192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1293900171073111</v>
+        <v>0.1669502484700566</v>
       </c>
       <c r="C59">
-        <v>-0.008633674031495927</v>
+        <v>0.02166462956499005</v>
       </c>
       <c r="D59">
-        <v>-0.2314745337507918</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.217195410479684</v>
+      </c>
+      <c r="E59">
+        <v>0.04661012689853471</v>
+      </c>
+      <c r="F59">
+        <v>-0.03623175817420215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2616505027199253</v>
+        <v>0.231882873530112</v>
       </c>
       <c r="C60">
-        <v>-0.0385559154019054</v>
+        <v>-0.002328101667228776</v>
       </c>
       <c r="D60">
-        <v>0.02674917992420613</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04163699644579954</v>
+      </c>
+      <c r="E60">
+        <v>-0.009903402335025405</v>
+      </c>
+      <c r="F60">
+        <v>-0.005390759051302737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1084278489925333</v>
+        <v>0.08052594568415831</v>
       </c>
       <c r="C61">
-        <v>0.0008257479549249872</v>
+        <v>0.01130431671991418</v>
       </c>
       <c r="D61">
-        <v>0.07785310353746826</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1177460352077483</v>
+      </c>
+      <c r="E61">
+        <v>-0.0397049451088105</v>
+      </c>
+      <c r="F61">
+        <v>0.0118129002014749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1699247057589071</v>
+        <v>0.1696314161259146</v>
       </c>
       <c r="C62">
-        <v>-0.006104803867977392</v>
+        <v>0.02051862074479393</v>
       </c>
       <c r="D62">
-        <v>-0.01180375687972954</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005399894636996048</v>
+      </c>
+      <c r="E62">
+        <v>-0.03327147012564492</v>
+      </c>
+      <c r="F62">
+        <v>0.03497122276317965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0464686910937677</v>
+        <v>0.04596373700876269</v>
       </c>
       <c r="C63">
-        <v>-0.0007954806738700591</v>
+        <v>0.001732476260350568</v>
       </c>
       <c r="D63">
-        <v>0.03623918410570918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05887511624209799</v>
+      </c>
+      <c r="E63">
+        <v>-0.02304180209867541</v>
+      </c>
+      <c r="F63">
+        <v>0.003909241995755793</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09798750108097427</v>
+        <v>0.1095936362922518</v>
       </c>
       <c r="C64">
-        <v>0.002370694928857192</v>
+        <v>0.01104942501823722</v>
       </c>
       <c r="D64">
-        <v>0.007752315480313096</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04425434473675821</v>
+      </c>
+      <c r="E64">
+        <v>-0.02377406026761827</v>
+      </c>
+      <c r="F64">
+        <v>0.02470579643758817</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1306261709783283</v>
+        <v>0.1494849692124709</v>
       </c>
       <c r="C65">
-        <v>0.01415634414271364</v>
+        <v>0.03359416444303272</v>
       </c>
       <c r="D65">
-        <v>-0.02815869172891756</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04322968415083387</v>
+      </c>
+      <c r="E65">
+        <v>-0.005510334837162949</v>
+      </c>
+      <c r="F65">
+        <v>0.0408970687205866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1583137818487786</v>
+        <v>0.1239655511618688</v>
       </c>
       <c r="C66">
-        <v>-0.001346432704885789</v>
+        <v>0.01348091629305557</v>
       </c>
       <c r="D66">
-        <v>0.1137550335721784</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1429944897536639</v>
+      </c>
+      <c r="E66">
+        <v>-0.06574703656697059</v>
+      </c>
+      <c r="F66">
+        <v>0.03318104232270828</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06817104473488873</v>
+        <v>0.05822684675493568</v>
       </c>
       <c r="C67">
-        <v>-0.004161031480390849</v>
+        <v>0.002924883043049266</v>
       </c>
       <c r="D67">
-        <v>0.0252905329390713</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05625889715967773</v>
+      </c>
+      <c r="E67">
+        <v>-0.01648592943920373</v>
+      </c>
+      <c r="F67">
+        <v>-0.03106520940247289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.08394678239488979</v>
+        <v>0.115690468191649</v>
       </c>
       <c r="C68">
-        <v>0.005522331753568007</v>
+        <v>0.03216919732666283</v>
       </c>
       <c r="D68">
-        <v>-0.2352478395599981</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2600672723938472</v>
+      </c>
+      <c r="E68">
+        <v>0.08630515961671946</v>
+      </c>
+      <c r="F68">
+        <v>0.004779834855426783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03476282773586049</v>
+        <v>0.03951215632408935</v>
       </c>
       <c r="C69">
-        <v>-0.002872580664387628</v>
+        <v>0.001191686156697851</v>
       </c>
       <c r="D69">
-        <v>-0.003662623427964283</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007959735022506657</v>
+      </c>
+      <c r="E69">
+        <v>-0.02260062228610162</v>
+      </c>
+      <c r="F69">
+        <v>0.00136126996111295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03496869716561656</v>
+        <v>0.06662025196696299</v>
       </c>
       <c r="C70">
-        <v>-0.02672483427969126</v>
+        <v>-0.02757666769295935</v>
       </c>
       <c r="D70">
-        <v>-0.03720427534166459</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0238373665338476</v>
+      </c>
+      <c r="E70">
+        <v>0.03525342113369218</v>
+      </c>
+      <c r="F70">
+        <v>-0.1863363890495499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.09879968200385798</v>
+        <v>0.1357898635420577</v>
       </c>
       <c r="C71">
-        <v>0.007696386397910804</v>
+        <v>0.03656323831732301</v>
       </c>
       <c r="D71">
-        <v>-0.253650314393645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2723046632726939</v>
+      </c>
+      <c r="E71">
+        <v>0.09719053463337765</v>
+      </c>
+      <c r="F71">
+        <v>0.009721536677407648</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1353709546356865</v>
+        <v>0.1423605837793618</v>
       </c>
       <c r="C72">
-        <v>0.006909501916340857</v>
+        <v>0.02667626409797781</v>
       </c>
       <c r="D72">
-        <v>-0.02560276860782361</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002297705100949217</v>
+      </c>
+      <c r="E72">
+        <v>-0.03714813963856683</v>
+      </c>
+      <c r="F72">
+        <v>0.03363341804038782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2055780819911199</v>
+        <v>0.2026841942225694</v>
       </c>
       <c r="C73">
-        <v>-0.01671452230234398</v>
+        <v>0.0126266692504085</v>
       </c>
       <c r="D73">
-        <v>-0.02003515867123763</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01645469722452843</v>
+      </c>
+      <c r="E73">
+        <v>-0.06141970765391822</v>
+      </c>
+      <c r="F73">
+        <v>0.03604212905937786</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1041336020874722</v>
+        <v>0.09463403581418181</v>
       </c>
       <c r="C74">
-        <v>-0.003308754819389345</v>
+        <v>0.01332212999228202</v>
       </c>
       <c r="D74">
-        <v>0.005112452019580196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01690581771075434</v>
+      </c>
+      <c r="E74">
+        <v>-0.04422832767246203</v>
+      </c>
+      <c r="F74">
+        <v>0.0574476425961172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1349732210644372</v>
+        <v>0.1275381648216232</v>
       </c>
       <c r="C75">
-        <v>0.008967219482072179</v>
+        <v>0.02812769543070917</v>
       </c>
       <c r="D75">
-        <v>0.007085332106755497</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03030752066781807</v>
+      </c>
+      <c r="E75">
+        <v>-0.05748801861370952</v>
+      </c>
+      <c r="F75">
+        <v>0.02194755206576537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08416525678523747</v>
+        <v>0.0875592466872397</v>
       </c>
       <c r="C77">
-        <v>0.003995423698634766</v>
+        <v>0.00825748469900205</v>
       </c>
       <c r="D77">
-        <v>0.08211424415517915</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1120564082409781</v>
+      </c>
+      <c r="E77">
+        <v>-0.03887716268029994</v>
+      </c>
+      <c r="F77">
+        <v>0.03396115222879543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1365263842214803</v>
+        <v>0.1004813080840236</v>
       </c>
       <c r="C78">
-        <v>0.02786731798912183</v>
+        <v>0.03948793015032961</v>
       </c>
       <c r="D78">
-        <v>0.03793446591907259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1151960875179705</v>
+      </c>
+      <c r="E78">
+        <v>-0.0745497705167491</v>
+      </c>
+      <c r="F78">
+        <v>0.0474912968515221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1608067427882636</v>
+        <v>0.1638833107049561</v>
       </c>
       <c r="C79">
-        <v>3.289916296629651e-06</v>
+        <v>0.02283770112363401</v>
       </c>
       <c r="D79">
-        <v>-0.0194496250477786</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01386101006617859</v>
+      </c>
+      <c r="E79">
+        <v>-0.0454073815672577</v>
+      </c>
+      <c r="F79">
+        <v>0.0114957335857118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0904107958832561</v>
+        <v>0.08256710935945104</v>
       </c>
       <c r="C80">
-        <v>-0.01129687921495195</v>
+        <v>-0.000862737762344096</v>
       </c>
       <c r="D80">
-        <v>0.03683377715153937</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05624092696377413</v>
+      </c>
+      <c r="E80">
+        <v>-0.03591292812910843</v>
+      </c>
+      <c r="F80">
+        <v>-0.02253287939572687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1247634195286948</v>
+        <v>0.1201559301985211</v>
       </c>
       <c r="C81">
-        <v>0.01425377658078757</v>
+        <v>0.03198421693125335</v>
       </c>
       <c r="D81">
-        <v>0.01753839323627521</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01479288860738611</v>
+      </c>
+      <c r="E81">
+        <v>-0.05652099434343943</v>
+      </c>
+      <c r="F81">
+        <v>0.01840922193107036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1728641183078623</v>
+        <v>0.166383036795984</v>
       </c>
       <c r="C82">
-        <v>-0.001875389146587563</v>
+        <v>0.02496433303886053</v>
       </c>
       <c r="D82">
-        <v>0.005567775310586919</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00348111971058407</v>
+      </c>
+      <c r="E82">
+        <v>-0.02643644062664317</v>
+      </c>
+      <c r="F82">
+        <v>0.08207199183062371</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06550174900297667</v>
+        <v>0.05917800285668831</v>
       </c>
       <c r="C83">
-        <v>-0.002301377091684629</v>
+        <v>0.002727869085074077</v>
       </c>
       <c r="D83">
-        <v>0.03217242994133605</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05153201261411907</v>
+      </c>
+      <c r="E83">
+        <v>-0.003124805694666945</v>
+      </c>
+      <c r="F83">
+        <v>-0.03001395814037651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07586706895146642</v>
+        <v>0.05918391455907309</v>
       </c>
       <c r="C84">
-        <v>0.004414174310841537</v>
+        <v>0.01111743642133277</v>
       </c>
       <c r="D84">
-        <v>0.03955062771018013</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06366188662824623</v>
+      </c>
+      <c r="E84">
+        <v>-0.006854668232614463</v>
+      </c>
+      <c r="F84">
+        <v>0.004792285239729402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1356142808987167</v>
+        <v>0.1357853598598792</v>
       </c>
       <c r="C85">
-        <v>0.008340394153624689</v>
+        <v>0.02808429537308824</v>
       </c>
       <c r="D85">
-        <v>-0.003326317337740507</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009502369883415494</v>
+      </c>
+      <c r="E85">
+        <v>-0.03552223736683744</v>
+      </c>
+      <c r="F85">
+        <v>0.04794281311229552</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08350997541589261</v>
+        <v>0.09533776213375827</v>
       </c>
       <c r="C86">
-        <v>-0.008774087111541297</v>
+        <v>-0.005340139425475772</v>
       </c>
       <c r="D86">
-        <v>-0.1019857675150768</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03972339942314536</v>
+      </c>
+      <c r="E86">
+        <v>-0.2243169679952743</v>
+      </c>
+      <c r="F86">
+        <v>-0.9056635793403592</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1338091683132641</v>
+        <v>0.0954935520195207</v>
       </c>
       <c r="C87">
-        <v>0.007313749431584384</v>
+        <v>0.01959813540261459</v>
       </c>
       <c r="D87">
-        <v>0.0607750275177022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09425816964737593</v>
+      </c>
+      <c r="E87">
+        <v>0.05232595498026346</v>
+      </c>
+      <c r="F87">
+        <v>0.04963796072331077</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0550751725724971</v>
+        <v>0.06073205396284726</v>
       </c>
       <c r="C88">
-        <v>-0.001000343179517103</v>
+        <v>0.002191325878512713</v>
       </c>
       <c r="D88">
-        <v>0.01992820671751436</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04935044657179105</v>
+      </c>
+      <c r="E88">
+        <v>-0.02396031725961212</v>
+      </c>
+      <c r="F88">
+        <v>0.01303711768793774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1097144865748437</v>
+        <v>0.130749166276096</v>
       </c>
       <c r="C89">
-        <v>-0.01641281289370041</v>
+        <v>0.01327290305753417</v>
       </c>
       <c r="D89">
-        <v>-0.2685806645318432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2471137850959137</v>
+      </c>
+      <c r="E89">
+        <v>0.08964412157367585</v>
+      </c>
+      <c r="F89">
+        <v>-0.007561181509638075</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1069965812818472</v>
+        <v>0.1508026415957218</v>
       </c>
       <c r="C90">
-        <v>0.004600615358439825</v>
+        <v>0.03322984844619396</v>
       </c>
       <c r="D90">
-        <v>-0.255056242267258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2708869533812756</v>
+      </c>
+      <c r="E90">
+        <v>0.1128870210609894</v>
+      </c>
+      <c r="F90">
+        <v>-0.007912895532320083</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1150402679470774</v>
+        <v>0.1209290513980184</v>
       </c>
       <c r="C91">
-        <v>0.0005400587433680446</v>
+        <v>0.01957825934208753</v>
       </c>
       <c r="D91">
-        <v>-0.03177625288982126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01492394050752992</v>
+      </c>
+      <c r="E91">
+        <v>-0.05538534508897659</v>
+      </c>
+      <c r="F91">
+        <v>-0.0007383395997451428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1103539394142555</v>
+        <v>0.1477780291374521</v>
       </c>
       <c r="C92">
-        <v>-0.01021954839145116</v>
+        <v>0.02431316505322987</v>
       </c>
       <c r="D92">
-        <v>-0.2743909621315317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2918039903964071</v>
+      </c>
+      <c r="E92">
+        <v>0.1016436686523093</v>
+      </c>
+      <c r="F92">
+        <v>-0.01346781624911905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.11294536463233</v>
+        <v>0.1515205069108338</v>
       </c>
       <c r="C93">
-        <v>-0.001266813006330368</v>
+        <v>0.0284776958091387</v>
       </c>
       <c r="D93">
-        <v>-0.2614930095451773</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2675485976155664</v>
+      </c>
+      <c r="E93">
+        <v>0.07926277382516148</v>
+      </c>
+      <c r="F93">
+        <v>0.002647820363853155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1417614948521245</v>
+        <v>0.128975876833074</v>
       </c>
       <c r="C94">
-        <v>0.004434807853610835</v>
+        <v>0.02468087668187748</v>
       </c>
       <c r="D94">
-        <v>0.02228225183951506</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04269400798673824</v>
+      </c>
+      <c r="E94">
+        <v>-0.0575682510728602</v>
+      </c>
+      <c r="F94">
+        <v>0.03793536458632455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1239530137948975</v>
+        <v>0.1267090535407151</v>
       </c>
       <c r="C95">
-        <v>-0.006390728367920223</v>
+        <v>0.003268424142280429</v>
       </c>
       <c r="D95">
-        <v>0.05171788026996407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09389927305591741</v>
+      </c>
+      <c r="E95">
+        <v>-0.04726024298464816</v>
+      </c>
+      <c r="F95">
+        <v>-0.006518851019578273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.03308709020432516</v>
+        <v>0.1081571271105751</v>
       </c>
       <c r="C96">
-        <v>-0.9942247464080175</v>
+        <v>-0.9872591443673542</v>
       </c>
       <c r="D96">
-        <v>-0.01937365790523002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04990388357591605</v>
+      </c>
+      <c r="E96">
+        <v>-0.05379842696856973</v>
+      </c>
+      <c r="F96">
+        <v>0.04213077582976821</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1804155311215536</v>
+        <v>0.1943790746218734</v>
       </c>
       <c r="C97">
-        <v>-0.03338513025566397</v>
+        <v>-0.006899598565160866</v>
       </c>
       <c r="D97">
-        <v>-0.04796494491932857</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01882039238318092</v>
+      </c>
+      <c r="E97">
+        <v>-0.02498573325568622</v>
+      </c>
+      <c r="F97">
+        <v>-0.07916983656524991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2013933363788215</v>
+        <v>0.2063168088227523</v>
       </c>
       <c r="C98">
-        <v>-0.01950155585574018</v>
+        <v>0.00738736315312968</v>
       </c>
       <c r="D98">
-        <v>-0.00284427090826055</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01241258024406706</v>
+      </c>
+      <c r="E98">
+        <v>0.07835113230570821</v>
+      </c>
+      <c r="F98">
+        <v>-0.09543908535582071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05509214295165774</v>
+        <v>0.05407791092408174</v>
       </c>
       <c r="C99">
-        <v>-0.01041616384815951</v>
+        <v>-0.004765592047004766</v>
       </c>
       <c r="D99">
-        <v>0.01504625867804895</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03987768679497391</v>
+      </c>
+      <c r="E99">
+        <v>-0.02216672860494629</v>
+      </c>
+      <c r="F99">
+        <v>0.00126451636737656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1633186044652284</v>
+        <v>0.1264552456383358</v>
       </c>
       <c r="C100">
-        <v>-0.05429485127903403</v>
+        <v>-0.05390633730741785</v>
       </c>
       <c r="D100">
-        <v>0.5672382704398664</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3457315047425087</v>
+      </c>
+      <c r="E100">
+        <v>0.8872594427639057</v>
+      </c>
+      <c r="F100">
+        <v>-0.1541841506822328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02426920152212859</v>
+        <v>0.02843062848337058</v>
       </c>
       <c r="C101">
-        <v>0.006584350946558019</v>
+        <v>0.008776389734151152</v>
       </c>
       <c r="D101">
-        <v>0.01507431467620231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03044288365525808</v>
+      </c>
+      <c r="E101">
+        <v>-0.01308739734312838</v>
+      </c>
+      <c r="F101">
+        <v>-0.01506404268941144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
